--- a/app/test-data.xlsx
+++ b/app/test-data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonys/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonys/Documents/GitHub/HotC/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26B2A64-411B-FB45-8E23-2872AB5603D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3401D4E-3FE0-3646-8CE9-F303D853D8DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="19940" windowHeight="13740" xr2:uid="{5E636752-F7FA-D544-8F1C-1039ECEFDFBF}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="24560" windowHeight="15540" xr2:uid="{5E636752-F7FA-D544-8F1C-1039ECEFDFBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>nodejs</t>
   </si>
@@ -102,6 +102,1735 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$22:$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>go (total)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nodejs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>java (total)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>536182344.89999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>379916559.80000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>757311423.89999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1068838817.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E68-274B-AF86-BF17736549B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1657975504"/>
+        <c:axId val="1658353696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1657975504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1658353696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1658353696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1657975504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$22:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>go (total)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nodejs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>java (total)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$23:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1642134364.9000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1515592245.0999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1888182943.0999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2180453632.3000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5876-284E-9757-12202AE9E4D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1658348128"/>
+        <c:axId val="1658357088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1658348128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1658357088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1658357088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1658348128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F05108D-4E41-8446-86CF-A533688D1005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E20667-0955-2D4E-AD67-19E682C6DCDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEA7AC9-DD17-0347-9C28-03B99AB4311E}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,82 +2563,135 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f>AVERAGE(A2:A11)</f>
+        <f t="shared" ref="A13:F13" si="0">AVERAGE(A2:A11)</f>
         <v>274977352.60000002</v>
       </c>
       <c r="B13" s="1">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" si="0"/>
         <v>536182344.89999998</v>
       </c>
       <c r="C13" s="1">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>379916559.80000001</v>
       </c>
       <c r="D13" s="1">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>757311423.89999998</v>
       </c>
       <c r="E13" s="1">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>400499922.89999998</v>
       </c>
       <c r="F13" s="1">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="0"/>
         <v>1068838817.6</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:M13" si="0">AVERAGE(H2:H11)</f>
+        <f t="shared" ref="H13:M13" si="1">AVERAGE(H2:H11)</f>
         <v>1424855488.5999999</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1642134364.9000001</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1515592245.0999999</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1888182943.0999999</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1541927834.2</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2180453632.3000002</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H16">
-        <f>H13-A13</f>
+        <f t="shared" ref="H16:M16" si="2">H13-A13</f>
         <v>1149878136</v>
       </c>
       <c r="I16">
-        <f>I13-B13</f>
+        <f t="shared" si="2"/>
         <v>1105952020</v>
       </c>
       <c r="J16">
-        <f>J13-C13</f>
+        <f t="shared" si="2"/>
         <v>1135675685.3</v>
       </c>
       <c r="K16">
-        <f>K13-D13</f>
+        <f t="shared" si="2"/>
         <v>1130871519.1999998</v>
       </c>
       <c r="L16">
-        <f>L13-E13</f>
+        <f t="shared" si="2"/>
         <v>1141427911.3000002</v>
       </c>
       <c r="M16">
-        <f>M13-F13</f>
+        <f t="shared" si="2"/>
         <v>1111614814.7000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>536182344.89999998</v>
+      </c>
+      <c r="B23" s="1">
+        <v>379916559.80000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>757311423.89999998</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1068838817.6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1642134364.9000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1515592245.0999999</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1888182943.0999999</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2180453632.3000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>